--- a/lab3/doc/TestCase List.xlsx
+++ b/lab3/doc/TestCase List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Desktop\ТПО\ЛР 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Desktop\ТПО\ЛР 3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E6F459-4AD0-4469-AEA1-5C29DC8E517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3ED88A-5B34-4AE2-A099-44BE5F975C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="865" firstSheet="2" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шаблон" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,15 @@
     <sheet name="ТС-9" sheetId="10" r:id="rId10"/>
     <sheet name="ТС-10" sheetId="11" r:id="rId11"/>
     <sheet name="ТС-11" sheetId="12" r:id="rId12"/>
-    <sheet name="ТС-12" sheetId="13" r:id="rId13"/>
-    <sheet name="ТС-13" sheetId="14" r:id="rId14"/>
-    <sheet name="ТС-14" sheetId="15" r:id="rId15"/>
-    <sheet name="ТС-15" sheetId="16" r:id="rId16"/>
-    <sheet name="ТС-16" sheetId="17" r:id="rId17"/>
-    <sheet name="ТС-17" sheetId="18" r:id="rId18"/>
-    <sheet name="ТС-18" sheetId="19" r:id="rId19"/>
-    <sheet name="ТС-19" sheetId="20" r:id="rId20"/>
-    <sheet name="ТС-20" sheetId="21" r:id="rId21"/>
+    <sheet name="ТС-12" sheetId="14" r:id="rId13"/>
+    <sheet name="ТС-13" sheetId="13" r:id="rId14"/>
+    <sheet name="ТС-14" sheetId="16" r:id="rId15"/>
+    <sheet name="ТС-15" sheetId="15" r:id="rId16"/>
+    <sheet name="ТС-16" sheetId="18" r:id="rId17"/>
+    <sheet name="ТС-17" sheetId="17" r:id="rId18"/>
+    <sheet name="ТС-18" sheetId="20" r:id="rId19"/>
+    <sheet name="ТС-19" sheetId="21" r:id="rId20"/>
+    <sheet name="ТС-20" sheetId="19" r:id="rId21"/>
     <sheet name="ТС-21" sheetId="22" r:id="rId22"/>
     <sheet name="ТС-22" sheetId="23" r:id="rId23"/>
     <sheet name="ТС-23" sheetId="24" r:id="rId24"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="180">
   <si>
     <t>Номер</t>
   </si>
@@ -1573,7 +1573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,6 +1583,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1921,9 +1933,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1950,9 +1959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1960,6 +1966,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1974,10 +1986,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1986,29 +2001,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2016,10 +2022,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -2031,15 +2046,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2049,30 +2055,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -2080,28 +2067,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -2619,132 +2661,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA33FF0-5BF7-4518-9C02-2B86C6CC2F20}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>9</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="67" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2862,17 +2902,17 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2882,129 +2922,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162EBC5-8BB6-44E9-A62E-01E482A9EC44}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>10</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="67" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3140,134 +3178,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6289C0D7-92E2-4753-BFF7-E074356B9212}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="57"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>11</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="68" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="67" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3401,136 +3439,402 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71643194-B119-49BF-95DC-F35916C45302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B275DA9-B0C2-4722-9CC1-36A0B57042EB}">
   <dimension ref="B1:E130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="57"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>12</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71643194-B119-49BF-95DC-F35916C45302}">
+  <dimension ref="B1:E130"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="63">
+        <v>13</v>
+      </c>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3662,139 +3966,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B275DA9-B0C2-4722-9CC1-36A0B57042EB}">
-  <dimension ref="B1:E130"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129CF78A-1496-4919-8F1C-35B5A5DF8A75}">
+  <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="57"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
-        <v>13</v>
-      </c>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="63">
+        <v>14</v>
+      </c>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="60"/>
+    </row>
+    <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="71"/>
+    </row>
+    <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="C9" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="71"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-    </row>
-    <row r="15" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-    </row>
-    <row r="16" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C12" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45"/>
+      <c r="C13" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+    </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3911,29 +4218,29 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAD879-65E9-42A6-A0D5-7D1476388FA2}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3947,115 +4254,115 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
-        <v>14</v>
-      </c>
-      <c r="D2" s="33"/>
+      <c r="C2" s="63">
+        <v>15</v>
+      </c>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="40" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="47"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
@@ -4180,29 +4487,29 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129CF78A-1496-4919-8F1C-35B5A5DF8A75}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE12337-9B96-486F-AC55-5EC613922BED}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4216,372 +4523,103 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
-        <v>15</v>
-      </c>
-      <c r="D2" s="33"/>
+      <c r="C2" s="63">
+        <v>16</v>
+      </c>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="27"/>
+      <c r="C8" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="29"/>
+      <c r="D10" s="33"/>
+    </row>
+    <row r="11" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="47"/>
-      <c r="C13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3062061-E1A3-4072-8248-E81C1780993A}">
-  <dimension ref="B1:D130"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="43">
-        <v>16</v>
-      </c>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="29"/>
-    </row>
-    <row r="11" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
@@ -4721,11 +4759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE12337-9B96-486F-AC55-5EC613922BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3062061-E1A3-4072-8248-E81C1780993A}">
   <dimension ref="B1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4739,103 +4777,103 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>17</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="37"/>
+      <c r="C5" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="27"/>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="27"/>
+      <c r="C8" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>119</v>
+      <c r="D11" s="55" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
@@ -4975,183 +5013,192 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EDE60F-2722-42E2-8A69-3948C0FEF7EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B048EBCB-3C71-47C5-B16B-79360F139C2A}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>18</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="37"/>
+      <c r="C5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="27"/>
+      <c r="C6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="27"/>
+      <c r="C7" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="68" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="18" t="s">
         <v>15</v>
       </c>
+      <c r="D15" s="56" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="52"/>
+      <c r="C16" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="52"/>
+      <c r="C17" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="6" t="s">
+    <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="52"/>
+      <c r="C18" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="6" t="s">
+    <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="52"/>
+      <c r="C19" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="47"/>
-      <c r="C19" s="14" t="s">
+      <c r="D19" s="56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="43"/>
+      <c r="C20" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D20" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="D21" s="4"/>
+    </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5263,20 +5310,20 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:B20"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5286,8 +5333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2E1045-28B5-4607-A1B7-09B395614711}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5298,156 +5345,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="57">
         <v>1</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="55" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5584,193 +5631,176 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B048EBCB-3C71-47C5-B16B-79360F139C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF287F42-4E17-49AA-8718-4C1C76C3AE0C}">
   <dimension ref="B1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="1" max="1" width="8.88671875" style="73"/>
+    <col min="2" max="2" width="26.6640625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="72" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="72" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>19</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>12</v>
+      <c r="C5" s="51" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="68" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61"/>
-      <c r="C16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
-      <c r="C17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
+      <c r="B16" s="40"/>
+      <c r="C16" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="45"/>
+      <c r="C17" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
-      <c r="C19" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="42"/>
-      <c r="C20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="B19" s="75"/>
+    </row>
+    <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="75"/>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="75"/>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5883,213 +5913,201 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF287F42-4E17-49AA-8718-4C1C76C3AE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EDE60F-2722-42E2-8A69-3948C0FEF7EC}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>20</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="27"/>
+      <c r="C4" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="27"/>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="27"/>
+      <c r="C7" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="27"/>
+      <c r="C9" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="68" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="6" t="s">
-        <v>139</v>
+      <c r="B15" s="40"/>
+      <c r="C15" s="61" t="s">
+        <v>127</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="6" t="s">
-        <v>140</v>
+      <c r="B16" s="40"/>
+      <c r="C16" s="61" t="s">
+        <v>128</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="47"/>
-      <c r="C20" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-    </row>
+    <row r="19" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="45"/>
+      <c r="C19" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6201,20 +6219,20 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6225,153 +6243,149 @@
   <dimension ref="B1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>21</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="55" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="52"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6504,176 +6518,174 @@
   <dimension ref="B1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="36">
         <v>22</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="56" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="47"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6786,18 +6798,18 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6808,181 +6820,179 @@
   <dimension ref="B1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="36">
         <v>23</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="56" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="56" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="53" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="77" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7095,11 +7105,6 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -7107,6 +7112,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7122,156 +7132,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="36">
         <v>24</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="47"/>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="52"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7384,16 +7392,16 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7403,134 +7411,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083485E6-A060-45D7-B320-E4F769F96B16}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="57"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="36">
         <v>25</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="47"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7667,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE73E33B-F49D-4569-A371-880BA6C34C02}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7679,156 +7687,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="57">
         <v>2</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="66"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7946,12 +7954,6 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -7959,6 +7961,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7968,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0808B3ED-EC8A-4FA0-895A-BAC8BCCA9D29}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7982,113 +7990,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="56" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="42"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="55" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8221,11 +8229,6 @@
     <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -8233,6 +8236,11 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8242,8 +8250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DA3CE3-F7C6-4D4C-A678-348E4A17F293}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8256,115 +8264,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="56" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="47"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8516,8 +8524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B8493-29DC-4149-94DC-281DCE72681D}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8530,106 +8538,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>5</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="67" t="s">
         <v>52</v>
       </c>
     </row>
@@ -8782,134 +8790,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F56E42-34D1-4ED6-AEC0-364BEF227891}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>6</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="56" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="55"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="67" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9046,139 +9052,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE52FD-79D5-49EB-8F4D-552CBDE5EDBF}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>7</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="56" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="55"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="67" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9315,129 +9319,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2836DBE-7DDB-40AD-981E-9B5F5C5968AD}">
   <dimension ref="B1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="50"/>
-    <col min="2" max="2" width="26.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="50"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="63">
         <v>8</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="2:4" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="67" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="51"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
